--- a/Financial Modelling Prep Library/Company Financial Data/EOG/annual/balance_sheets.xlsx
+++ b/Financial Modelling Prep Library/Company Financial Data/EOG/annual/balance_sheets.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="177">
   <si>
     <t>date</t>
   </si>
@@ -181,30 +181,6 @@
     <t>index</t>
   </si>
   <si>
-    <t>EOG-FY-1994</t>
-  </si>
-  <si>
-    <t>EOG-FY-1995</t>
-  </si>
-  <si>
-    <t>EOG-FY-1996</t>
-  </si>
-  <si>
-    <t>EOG-FY-1997</t>
-  </si>
-  <si>
-    <t>EOG-FY-1998</t>
-  </si>
-  <si>
-    <t>EOG-FY-1999</t>
-  </si>
-  <si>
-    <t>EOG-FY-2000</t>
-  </si>
-  <si>
-    <t>EOG-FY-2001</t>
-  </si>
-  <si>
     <t>EOG-FY-2002</t>
   </si>
   <si>
@@ -274,30 +250,6 @@
     <t>0000821189</t>
   </si>
   <si>
-    <t>1994-12-31</t>
-  </si>
-  <si>
-    <t>1995-12-31</t>
-  </si>
-  <si>
-    <t>1996-12-31</t>
-  </si>
-  <si>
-    <t>1997-12-31</t>
-  </si>
-  <si>
-    <t>1998-12-31</t>
-  </si>
-  <si>
-    <t>2000-03-08</t>
-  </si>
-  <si>
-    <t>2001-03-23</t>
-  </si>
-  <si>
-    <t>2001-12-31</t>
-  </si>
-  <si>
     <t>2002-12-31</t>
   </si>
   <si>
@@ -358,30 +310,6 @@
     <t>2022-02-24</t>
   </si>
   <si>
-    <t>1994-12-30 19:00:00</t>
-  </si>
-  <si>
-    <t>1995-12-30 19:00:00</t>
-  </si>
-  <si>
-    <t>1996-12-30 19:00:00</t>
-  </si>
-  <si>
-    <t>1997-12-30 19:00:00</t>
-  </si>
-  <si>
-    <t>1998-12-30 19:00:00</t>
-  </si>
-  <si>
-    <t>2000-03-08 00:00:00</t>
-  </si>
-  <si>
-    <t>2001-03-23 00:00:00</t>
-  </si>
-  <si>
-    <t>2002-03-20 00:00:00</t>
-  </si>
-  <si>
     <t>2003-03-13 16:50:47</t>
   </si>
   <si>
@@ -442,30 +370,6 @@
     <t>2022-02-24 16:51:16</t>
   </si>
   <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
     <t>2002</t>
   </si>
   <si>
@@ -529,12 +433,6 @@
     <t>FY</t>
   </si>
   <si>
-    <t>https://www.sec.gov/Archives/edgar/data/821189/0000950129-00-001017-index.html</t>
-  </si>
-  <si>
-    <t>https://www.sec.gov/Archives/edgar/data/821189/000082118901500007/0000821189-01-500007-index.htm</t>
-  </si>
-  <si>
     <t>https://www.sec.gov/Archives/edgar/data/821189/000082118904000070/0000821189-04-000070-index.htm</t>
   </si>
   <si>
@@ -590,12 +488,6 @@
   </si>
   <si>
     <t>https://www.sec.gov/Archives/edgar/data/821189/000082118922000017/0000821189-22-000017-index.htm</t>
-  </si>
-  <si>
-    <t>https://www.sec.gov/Archives/edgar/data/821189/000095012900001017/</t>
-  </si>
-  <si>
-    <t>https://www.sec.gov/Archives/edgar/data/821189/000082118901500007/form10k2000.txt</t>
   </si>
   <si>
     <t>https://www.sec.gov/Archives/edgar/data/821189/000082118904000070/eog10-k03.txt</t>
@@ -1027,7 +919,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BC29"/>
+  <dimension ref="A1:BC21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1205,52 +1097,52 @@
         <v>55</v>
       </c>
       <c r="B2" s="2">
-        <v>34699</v>
+        <v>37621</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="H2" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="I2" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="J2">
-        <v>5800000</v>
+        <v>9848000</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>5800000</v>
+        <v>9848000</v>
       </c>
       <c r="M2">
-        <v>126200000</v>
+        <v>310133000</v>
       </c>
       <c r="N2">
-        <v>15700000</v>
+        <v>18928000</v>
       </c>
       <c r="O2">
-        <v>8700000</v>
+        <v>55883000</v>
       </c>
       <c r="P2">
-        <v>156400000</v>
+        <v>394792000</v>
       </c>
       <c r="Q2">
-        <v>1684800000</v>
+        <v>3321548000</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1268,22 +1160,22 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>20700000</v>
+        <v>97666000</v>
       </c>
       <c r="X2">
-        <v>1705500000</v>
+        <v>3419214000</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>1861900000</v>
+        <v>3814006000</v>
       </c>
       <c r="AA2">
-        <v>131200000</v>
+        <v>201931000</v>
       </c>
       <c r="AB2">
-        <v>1700000</v>
+        <v>0</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -1292,25 +1184,25 @@
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>31700000</v>
+        <v>74420000</v>
       </c>
       <c r="AF2">
-        <v>164600000</v>
+        <v>276351000</v>
       </c>
       <c r="AG2">
-        <v>190300000</v>
+        <v>1145132000</v>
       </c>
       <c r="AH2">
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>269300000</v>
+        <v>660948000</v>
       </c>
       <c r="AJ2">
-        <v>194300000</v>
+        <v>59180000</v>
       </c>
       <c r="AK2">
-        <v>653900000</v>
+        <v>1865260000</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -1319,46 +1211,46 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>818500000</v>
+        <v>2141611000</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>147999000</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>201247000</v>
       </c>
       <c r="AQ2">
-        <v>453800000</v>
+        <v>1723948000</v>
       </c>
       <c r="AR2">
-        <v>-1330600000</v>
+        <v>-64910000</v>
       </c>
       <c r="AS2">
-        <v>1920200000</v>
+        <v>-335889000</v>
       </c>
       <c r="AT2">
-        <v>1043400000</v>
+        <v>1672395000</v>
       </c>
       <c r="AU2">
-        <v>1043400000</v>
+        <v>1672395000</v>
       </c>
       <c r="AV2">
-        <v>1861900000</v>
+        <v>3814006000</v>
       </c>
       <c r="AW2">
         <v>0</v>
       </c>
       <c r="AX2">
-        <v>1861900000</v>
+        <v>3814006000</v>
       </c>
       <c r="AY2">
         <v>0</v>
       </c>
       <c r="AZ2">
-        <v>192000000</v>
+        <v>1145132000</v>
       </c>
       <c r="BA2">
-        <v>186200000</v>
+        <v>1135284000</v>
       </c>
     </row>
     <row r="3" spans="1:55">
@@ -1366,52 +1258,52 @@
         <v>56</v>
       </c>
       <c r="B3" s="2">
-        <v>35064</v>
+        <v>37986</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="H3" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="I3" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="J3">
-        <v>23000000</v>
+        <v>4443000</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>23000000</v>
+        <v>4443000</v>
       </c>
       <c r="M3">
-        <v>168500000</v>
+        <v>303094000</v>
       </c>
       <c r="N3">
-        <v>11700000</v>
+        <v>21922000</v>
       </c>
       <c r="O3">
-        <v>14600000</v>
+        <v>66555000</v>
       </c>
       <c r="P3">
-        <v>217800000</v>
+        <v>396014000</v>
       </c>
       <c r="Q3">
-        <v>1881400000</v>
+        <v>4248917000</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1429,19 +1321,19 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>48100000</v>
+        <v>104084000</v>
       </c>
       <c r="X3">
-        <v>1929500000</v>
+        <v>4353001000</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>2147300000</v>
+        <v>4749015000</v>
       </c>
       <c r="AA3">
-        <v>133700000</v>
+        <v>282379000</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -1453,25 +1345,25 @@
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>35600000</v>
+        <v>194140000</v>
       </c>
       <c r="AF3">
-        <v>169300000</v>
+        <v>476519000</v>
       </c>
       <c r="AG3">
-        <v>289100000</v>
+        <v>1108872000</v>
       </c>
       <c r="AH3">
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>308100000</v>
+        <v>769128000</v>
       </c>
       <c r="AJ3">
-        <v>217100000</v>
+        <v>171115000</v>
       </c>
       <c r="AK3">
-        <v>814300000</v>
+        <v>2049115000</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -1480,46 +1372,52 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>983600000</v>
+        <v>2525634000</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>148416000</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>201247000</v>
       </c>
       <c r="AQ3">
-        <v>576700000</v>
+        <v>2121214000</v>
       </c>
       <c r="AR3">
-        <v>-1499400000</v>
+        <v>50461000</v>
       </c>
       <c r="AS3">
-        <v>2086400000</v>
+        <v>-297957000</v>
       </c>
       <c r="AT3">
-        <v>1163700000</v>
+        <v>2223381000</v>
       </c>
       <c r="AU3">
-        <v>1163700000</v>
+        <v>2223381000</v>
       </c>
       <c r="AV3">
-        <v>2147300000</v>
+        <v>4749015000</v>
       </c>
       <c r="AW3">
         <v>0</v>
       </c>
       <c r="AX3">
-        <v>2147300000</v>
+        <v>4749015000</v>
       </c>
       <c r="AY3">
         <v>0</v>
       </c>
       <c r="AZ3">
-        <v>289100000</v>
+        <v>1108872000</v>
       </c>
       <c r="BA3">
-        <v>266100000</v>
+        <v>1104429000</v>
+      </c>
+      <c r="BB3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="BC3" s="3" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:55">
@@ -1527,52 +1425,52 @@
         <v>57</v>
       </c>
       <c r="B4" s="2">
-        <v>35430</v>
+        <v>38352</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="H4" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="I4" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="J4">
-        <v>7600000</v>
+        <v>20980000</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7600000</v>
+        <v>20980000</v>
       </c>
       <c r="M4">
-        <v>277300000</v>
+        <v>450974000</v>
       </c>
       <c r="N4">
-        <v>20700000</v>
+        <v>40037000</v>
       </c>
       <c r="O4">
-        <v>20300000</v>
+        <v>74812000</v>
       </c>
       <c r="P4">
-        <v>325900000</v>
+        <v>586803000</v>
       </c>
       <c r="Q4">
-        <v>2099600000</v>
+        <v>5101603000</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -1590,19 +1488,19 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>32900000</v>
+        <v>110517000</v>
       </c>
       <c r="X4">
-        <v>2132500000</v>
+        <v>5212120000</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>2458400000</v>
+        <v>5798923000</v>
       </c>
       <c r="AA4">
-        <v>277600000</v>
+        <v>424581000</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -1614,25 +1512,25 @@
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>39800000</v>
+        <v>207623000</v>
       </c>
       <c r="AF4">
-        <v>317400000</v>
+        <v>632204000</v>
       </c>
       <c r="AG4">
-        <v>466100000</v>
+        <v>1077622000</v>
       </c>
       <c r="AH4">
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>308900000</v>
+        <v>902354000</v>
       </c>
       <c r="AJ4">
-        <v>100900000</v>
+        <v>241319000</v>
       </c>
       <c r="AK4">
-        <v>875900000</v>
+        <v>2221295000</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -1641,46 +1539,52 @@
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>1193300000</v>
+        <v>2853499000</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>98826000</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>201247000</v>
       </c>
       <c r="AQ4">
-        <v>697600000</v>
+        <v>2706845000</v>
       </c>
       <c r="AR4">
-        <v>-1653600000</v>
+        <v>118154000</v>
       </c>
       <c r="AS4">
-        <v>2221100000</v>
+        <v>-179648000</v>
       </c>
       <c r="AT4">
-        <v>1265100000</v>
+        <v>2945424000</v>
       </c>
       <c r="AU4">
-        <v>1265100000</v>
+        <v>2945424000</v>
       </c>
       <c r="AV4">
-        <v>2458400000</v>
+        <v>5798923000</v>
       </c>
       <c r="AW4">
         <v>0</v>
       </c>
       <c r="AX4">
-        <v>2458400000</v>
+        <v>5798923000</v>
       </c>
       <c r="AY4">
         <v>0</v>
       </c>
       <c r="AZ4">
-        <v>466100000</v>
+        <v>1077622000</v>
       </c>
       <c r="BA4">
-        <v>458500000</v>
+        <v>1056642000</v>
+      </c>
+      <c r="BB4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="BC4" s="3" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:55">
@@ -1688,52 +1592,52 @@
         <v>58</v>
       </c>
       <c r="B5" s="2">
-        <v>35795</v>
+        <v>38717</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="H5" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="I5" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="J5">
-        <v>9300000</v>
+        <v>643811000</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9300000</v>
+        <v>643811000</v>
       </c>
       <c r="M5">
-        <v>232100000</v>
+        <v>762462000</v>
       </c>
       <c r="N5">
-        <v>32000000</v>
+        <v>63215000</v>
       </c>
       <c r="O5">
-        <v>8600000</v>
+        <v>93750000</v>
       </c>
       <c r="P5">
-        <v>282000000</v>
+        <v>1563238000</v>
       </c>
       <c r="Q5">
-        <v>2387200000</v>
+        <v>6087179000</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1751,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>54200000</v>
+        <v>102903000</v>
       </c>
       <c r="X5">
-        <v>2441400000</v>
+        <v>6190082000</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>2723400000</v>
+        <v>7753320000</v>
       </c>
       <c r="AA5">
-        <v>235700000</v>
+        <v>679548000</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>126075000</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -1775,25 +1679,25 @@
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>55300000</v>
+        <v>366418000</v>
       </c>
       <c r="AF5">
-        <v>291000000</v>
+        <v>1172041000</v>
       </c>
       <c r="AG5">
-        <v>741300000</v>
+        <v>858992000</v>
       </c>
       <c r="AH5">
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>287700000</v>
+        <v>1122588000</v>
       </c>
       <c r="AJ5">
-        <v>122400000</v>
+        <v>283407000</v>
       </c>
       <c r="AK5">
-        <v>1151400000</v>
+        <v>2264987000</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1802,46 +1706,52 @@
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>1442400000</v>
+        <v>3437028000</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>99062000</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>202495000</v>
       </c>
       <c r="AQ5">
-        <v>800700000</v>
+        <v>3920483000</v>
       </c>
       <c r="AR5">
-        <v>-1904200000</v>
+        <v>140891000</v>
       </c>
       <c r="AS5">
-        <v>2384500000</v>
+        <v>-46639000</v>
       </c>
       <c r="AT5">
-        <v>1281000000</v>
+        <v>4316292000</v>
       </c>
       <c r="AU5">
-        <v>1281000000</v>
+        <v>4316292000</v>
       </c>
       <c r="AV5">
-        <v>2723400000</v>
+        <v>7753320000</v>
       </c>
       <c r="AW5">
         <v>0</v>
       </c>
       <c r="AX5">
-        <v>2723400000</v>
+        <v>7753320000</v>
       </c>
       <c r="AY5">
         <v>0</v>
       </c>
       <c r="AZ5">
-        <v>741300000</v>
+        <v>985067000</v>
       </c>
       <c r="BA5">
-        <v>732000000</v>
+        <v>341256000</v>
+      </c>
+      <c r="BB5" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="BC5" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:55">
@@ -1849,52 +1759,52 @@
         <v>59</v>
       </c>
       <c r="B6" s="2">
-        <v>36160</v>
+        <v>39082</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="H6" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="I6" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="J6">
-        <v>6300000</v>
+        <v>218255000</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6300000</v>
+        <v>218255000</v>
       </c>
       <c r="M6">
-        <v>193600000</v>
+        <v>848445000</v>
       </c>
       <c r="N6">
-        <v>39600000</v>
+        <v>113591000</v>
       </c>
       <c r="O6">
-        <v>6900000</v>
+        <v>169789000</v>
       </c>
       <c r="P6">
-        <v>246400000</v>
+        <v>1350080000</v>
       </c>
       <c r="Q6">
-        <v>2676400000</v>
+        <v>7944047000</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1912,19 +1822,19 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>95300000</v>
+        <v>108033000</v>
       </c>
       <c r="X6">
-        <v>2771700000</v>
+        <v>8052080000</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>3018100000</v>
+        <v>9402160000</v>
       </c>
       <c r="AA6">
-        <v>206300000</v>
+        <v>896572000</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -1936,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>56300000</v>
+        <v>358440000</v>
       </c>
       <c r="AF6">
-        <v>262600000</v>
+        <v>1255012000</v>
       </c>
       <c r="AG6">
-        <v>1142800000</v>
+        <v>733442000</v>
       </c>
       <c r="AH6">
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>260300000</v>
+        <v>1513128000</v>
       </c>
       <c r="AJ6">
-        <v>72100000</v>
+        <v>300907000</v>
       </c>
       <c r="AK6">
-        <v>1475200000</v>
+        <v>2547477000</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1963,46 +1873,52 @@
         <v>0</v>
       </c>
       <c r="AN6">
-        <v>1737800000</v>
+        <v>3802489000</v>
       </c>
       <c r="AO6">
-        <v>0</v>
+        <v>52887000</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>202495000</v>
       </c>
       <c r="AQ6">
-        <v>838400000</v>
+        <v>5151034000</v>
       </c>
       <c r="AR6">
-        <v>-2138100000</v>
+        <v>176704000</v>
       </c>
       <c r="AS6">
-        <v>2580000000</v>
+        <v>16551000</v>
       </c>
       <c r="AT6">
-        <v>1280300000</v>
+        <v>5599671000</v>
       </c>
       <c r="AU6">
-        <v>1280300000</v>
+        <v>5599671000</v>
       </c>
       <c r="AV6">
-        <v>3018100000</v>
+        <v>9402160000</v>
       </c>
       <c r="AW6">
         <v>0</v>
       </c>
       <c r="AX6">
-        <v>3018100000</v>
+        <v>9402160000</v>
       </c>
       <c r="AY6">
         <v>0</v>
       </c>
       <c r="AZ6">
-        <v>1142800000</v>
+        <v>733442000</v>
       </c>
       <c r="BA6">
-        <v>1136500000</v>
+        <v>515187000</v>
+      </c>
+      <c r="BB6" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="BC6" s="3" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:55">
@@ -2010,52 +1926,52 @@
         <v>60</v>
       </c>
       <c r="B7" s="2">
-        <v>36525</v>
+        <v>39447</v>
       </c>
       <c r="C7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
         <v>83</v>
       </c>
-      <c r="D7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F7" t="s">
-        <v>91</v>
-      </c>
       <c r="G7" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="H7" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I7" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="J7">
-        <v>24800000</v>
+        <v>54231000</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>24800000</v>
+        <v>54231000</v>
       </c>
       <c r="M7">
-        <v>148200000</v>
+        <v>946040000</v>
       </c>
       <c r="N7">
-        <v>18800000</v>
+        <v>102322000</v>
       </c>
       <c r="O7">
-        <v>8700000</v>
+        <v>189446000</v>
       </c>
       <c r="P7">
-        <v>200500000</v>
+        <v>1292039000</v>
       </c>
       <c r="Q7">
-        <v>2334900000</v>
+        <v>10429254000</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -2073,19 +1989,19 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>75400000</v>
+        <v>367614000</v>
       </c>
       <c r="X7">
-        <v>2410300000</v>
+        <v>10796868000</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>2610800000</v>
+        <v>12088907000</v>
       </c>
       <c r="AA7">
-        <v>172800000</v>
+        <v>1152140000</v>
       </c>
       <c r="AB7">
         <v>0</v>
@@ -2097,25 +2013,25 @@
         <v>0</v>
       </c>
       <c r="AE7">
-        <v>45800000</v>
+        <v>322030000</v>
       </c>
       <c r="AF7">
-        <v>218600000</v>
+        <v>1474170000</v>
       </c>
       <c r="AG7">
-        <v>990300000</v>
+        <v>1185000000</v>
       </c>
       <c r="AH7">
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>226000000</v>
+        <v>2071307000</v>
       </c>
       <c r="AJ7">
-        <v>46300000</v>
+        <v>368336000</v>
       </c>
       <c r="AK7">
-        <v>1262600000</v>
+        <v>3624643000</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -2124,52 +2040,52 @@
         <v>0</v>
       </c>
       <c r="AN7">
-        <v>1481200000</v>
+        <v>5098813000</v>
       </c>
       <c r="AO7">
-        <v>0</v>
+        <v>4977000</v>
       </c>
       <c r="AP7">
-        <v>201200000</v>
+        <v>202495000</v>
       </c>
       <c r="AQ7">
-        <v>930900000</v>
+        <v>6156721000</v>
       </c>
       <c r="AR7">
-        <v>-2267800000</v>
+        <v>466702000</v>
       </c>
       <c r="AS7">
-        <v>2265300000</v>
+        <v>159199000</v>
       </c>
       <c r="AT7">
-        <v>1129600000</v>
+        <v>6990094000</v>
       </c>
       <c r="AU7">
-        <v>1129600000</v>
+        <v>6990094000</v>
       </c>
       <c r="AV7">
-        <v>2610800000</v>
+        <v>12088907000</v>
       </c>
       <c r="AW7">
         <v>0</v>
       </c>
       <c r="AX7">
-        <v>2610800000</v>
+        <v>12088907000</v>
       </c>
       <c r="AY7">
         <v>0</v>
       </c>
       <c r="AZ7">
-        <v>990300000</v>
+        <v>1185000000</v>
       </c>
       <c r="BA7">
-        <v>965500000</v>
+        <v>1130769000</v>
       </c>
       <c r="BB7" s="3" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="BC7" s="3" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:55">
@@ -2177,52 +2093,52 @@
         <v>61</v>
       </c>
       <c r="B8" s="2">
-        <v>36891</v>
+        <v>39813</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" t="s">
         <v>84</v>
       </c>
-      <c r="E8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F8" t="s">
-        <v>92</v>
-      </c>
       <c r="G8" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="H8" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="I8" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="J8">
-        <v>20152000</v>
+        <v>331311000</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>20152000</v>
+        <v>331311000</v>
       </c>
       <c r="M8">
-        <v>342579000</v>
+        <v>749748000</v>
       </c>
       <c r="N8">
-        <v>16623000</v>
+        <v>187970000</v>
       </c>
       <c r="O8">
-        <v>15073000</v>
+        <v>839422000</v>
       </c>
       <c r="P8">
-        <v>394427000</v>
+        <v>2108451000</v>
       </c>
       <c r="Q8">
-        <v>2525007000</v>
+        <v>13657302000</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -2240,22 +2156,22 @@
         <v>0</v>
       </c>
       <c r="W8">
-        <v>81381000</v>
+        <v>185473000</v>
       </c>
       <c r="X8">
-        <v>2606388000</v>
+        <v>13842775000</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>3000815000</v>
+        <v>15951226000</v>
       </c>
       <c r="AA8">
-        <v>246030000</v>
+        <v>1122209000</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>37000000</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -2264,25 +2180,25 @@
         <v>0</v>
       </c>
       <c r="AE8">
-        <v>123648000</v>
+        <v>605707000</v>
       </c>
       <c r="AF8">
-        <v>369678000</v>
+        <v>1764916000</v>
       </c>
       <c r="AG8">
-        <v>859000000</v>
+        <v>1860000000</v>
       </c>
       <c r="AH8">
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>340079000</v>
+        <v>2813522000</v>
       </c>
       <c r="AJ8">
-        <v>51133000</v>
+        <v>498291000</v>
       </c>
       <c r="AK8">
-        <v>1250212000</v>
+        <v>5171813000</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -2291,52 +2207,52 @@
         <v>0</v>
       </c>
       <c r="AN8">
-        <v>1619890000</v>
+        <v>6936729000</v>
       </c>
       <c r="AO8">
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>201247000</v>
+        <v>202498000</v>
       </c>
       <c r="AQ8">
-        <v>1301067000</v>
+        <v>8466143000</v>
       </c>
       <c r="AR8">
-        <v>-2597721000</v>
+        <v>27787000</v>
       </c>
       <c r="AS8">
-        <v>2476332000</v>
+        <v>318069000</v>
       </c>
       <c r="AT8">
-        <v>1380925000</v>
+        <v>9014497000</v>
       </c>
       <c r="AU8">
-        <v>1380925000</v>
+        <v>9014497000</v>
       </c>
       <c r="AV8">
-        <v>3000815000</v>
+        <v>15951226000</v>
       </c>
       <c r="AW8">
         <v>0</v>
       </c>
       <c r="AX8">
-        <v>3000815000</v>
+        <v>15951226000</v>
       </c>
       <c r="AY8">
         <v>0</v>
       </c>
       <c r="AZ8">
-        <v>859000000</v>
+        <v>1897000000</v>
       </c>
       <c r="BA8">
-        <v>838848000</v>
+        <v>1565689000</v>
       </c>
       <c r="BB8" s="3" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="BC8" s="3" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:55">
@@ -2344,52 +2260,52 @@
         <v>62</v>
       </c>
       <c r="B9" s="2">
-        <v>37256</v>
+        <v>40178</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" t="s">
         <v>85</v>
       </c>
-      <c r="F9" t="s">
-        <v>93</v>
-      </c>
       <c r="G9" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="H9" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="I9" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="J9">
-        <v>2512000</v>
+        <v>685751000</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>2512000</v>
+        <v>685751000</v>
       </c>
       <c r="M9">
-        <v>194624000</v>
+        <v>808426000</v>
       </c>
       <c r="N9">
-        <v>18871000</v>
+        <v>261723000</v>
       </c>
       <c r="O9">
-        <v>56414000</v>
+        <v>83641000</v>
       </c>
       <c r="P9">
-        <v>272421000</v>
+        <v>1839541000</v>
       </c>
       <c r="Q9">
-        <v>3055910000</v>
+        <v>16139225000</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -2407,22 +2323,22 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <v>85713000</v>
+        <v>139901000</v>
       </c>
       <c r="X9">
-        <v>3141623000</v>
+        <v>16279126000</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>3414044000</v>
+        <v>18118667000</v>
       </c>
       <c r="AA9">
-        <v>219561000</v>
+        <v>979139000</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>37000000</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -2431,25 +2347,25 @@
         <v>0</v>
       </c>
       <c r="AE9">
-        <v>91286000</v>
+        <v>329421000</v>
       </c>
       <c r="AF9">
-        <v>310847000</v>
+        <v>1345560000</v>
       </c>
       <c r="AG9">
-        <v>855969000</v>
+        <v>2760000000</v>
       </c>
       <c r="AH9">
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>551020000</v>
+        <v>3382413000</v>
       </c>
       <c r="AJ9">
-        <v>53522000</v>
+        <v>632652000</v>
       </c>
       <c r="AK9">
-        <v>1460511000</v>
+        <v>6775065000</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -2458,46 +2374,52 @@
         <v>0</v>
       </c>
       <c r="AN9">
-        <v>1771358000</v>
+        <v>8120625000</v>
       </c>
       <c r="AO9">
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>201247000</v>
+        <v>202526000</v>
       </c>
       <c r="AQ9">
-        <v>1668708000</v>
+        <v>8866747000</v>
       </c>
       <c r="AR9">
-        <v>-3009693000</v>
+        <v>339720000</v>
       </c>
       <c r="AS9">
-        <v>2782424000</v>
+        <v>589049000</v>
       </c>
       <c r="AT9">
-        <v>1642686000</v>
+        <v>9998042000</v>
       </c>
       <c r="AU9">
-        <v>1642686000</v>
+        <v>9998042000</v>
       </c>
       <c r="AV9">
-        <v>3414044000</v>
+        <v>18118667000</v>
       </c>
       <c r="AW9">
         <v>0</v>
       </c>
       <c r="AX9">
-        <v>3414044000</v>
+        <v>18118667000</v>
       </c>
       <c r="AY9">
         <v>0</v>
       </c>
       <c r="AZ9">
-        <v>855969000</v>
+        <v>2797000000</v>
       </c>
       <c r="BA9">
-        <v>853457000</v>
+        <v>2111249000</v>
+      </c>
+      <c r="BB9" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BC9" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:55">
@@ -2505,52 +2427,52 @@
         <v>63</v>
       </c>
       <c r="B10" s="2">
-        <v>37621</v>
+        <v>40543</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G10" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="H10" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="I10" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="J10">
-        <v>9848000</v>
+        <v>788853000</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9848000</v>
+        <v>788853000</v>
       </c>
       <c r="M10">
-        <v>310133000</v>
+        <v>1168195000</v>
       </c>
       <c r="N10">
-        <v>18928000</v>
+        <v>415792000</v>
       </c>
       <c r="O10">
-        <v>55883000</v>
+        <v>154606000</v>
       </c>
       <c r="P10">
-        <v>394792000</v>
+        <v>2527446000</v>
       </c>
       <c r="Q10">
-        <v>3321548000</v>
+        <v>18680900000</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -2568,22 +2490,22 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <v>97666000</v>
+        <v>415887000</v>
       </c>
       <c r="X10">
-        <v>3419214000</v>
+        <v>19096787000</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>3814006000</v>
+        <v>21624233000</v>
       </c>
       <c r="AA10">
-        <v>201931000</v>
+        <v>1664944000</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>220000000</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -2592,25 +2514,25 @@
         <v>0</v>
       </c>
       <c r="AE10">
-        <v>74420000</v>
+        <v>335155000</v>
       </c>
       <c r="AF10">
-        <v>276351000</v>
+        <v>2220099000</v>
       </c>
       <c r="AG10">
-        <v>1145132000</v>
+        <v>5003341000</v>
       </c>
       <c r="AH10">
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>660948000</v>
+        <v>3501706000</v>
       </c>
       <c r="AJ10">
-        <v>59180000</v>
+        <v>667455000</v>
       </c>
       <c r="AK10">
-        <v>1865260000</v>
+        <v>9172502000</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -2619,46 +2541,52 @@
         <v>0</v>
       </c>
       <c r="AN10">
-        <v>2141611000</v>
+        <v>11392601000</v>
       </c>
       <c r="AO10">
-        <v>147999000</v>
+        <v>0</v>
       </c>
       <c r="AP10">
-        <v>201247000</v>
+        <v>202542000</v>
       </c>
       <c r="AQ10">
-        <v>1723948000</v>
+        <v>8870179000</v>
       </c>
       <c r="AR10">
-        <v>-64910000</v>
+        <v>440071000</v>
       </c>
       <c r="AS10">
-        <v>-335889000</v>
+        <v>718840000</v>
       </c>
       <c r="AT10">
-        <v>1672395000</v>
+        <v>10231632000</v>
       </c>
       <c r="AU10">
-        <v>1672395000</v>
+        <v>10231632000</v>
       </c>
       <c r="AV10">
-        <v>3814006000</v>
+        <v>21624233000</v>
       </c>
       <c r="AW10">
         <v>0</v>
       </c>
       <c r="AX10">
-        <v>3814006000</v>
+        <v>21624233000</v>
       </c>
       <c r="AY10">
         <v>0</v>
       </c>
       <c r="AZ10">
-        <v>1145132000</v>
+        <v>5223341000</v>
       </c>
       <c r="BA10">
-        <v>1135284000</v>
+        <v>4434488000</v>
+      </c>
+      <c r="BB10" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BC10" s="3" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:55">
@@ -2666,52 +2594,52 @@
         <v>64</v>
       </c>
       <c r="B11" s="2">
-        <v>37986</v>
+        <v>40907</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="G11" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="H11" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="I11" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="J11">
-        <v>4443000</v>
+        <v>615726000</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>4443000</v>
+        <v>615726000</v>
       </c>
       <c r="M11">
-        <v>303094000</v>
+        <v>1451227000</v>
       </c>
       <c r="N11">
-        <v>21922000</v>
+        <v>590594000</v>
       </c>
       <c r="O11">
-        <v>66555000</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>396014000</v>
+        <v>2657547000</v>
       </c>
       <c r="Q11">
-        <v>4248917000</v>
+        <v>2149989000</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -2729,103 +2657,103 @@
         <v>0</v>
       </c>
       <c r="W11">
-        <v>104084000</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>4353001000</v>
+        <v>2149989000</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>4749015000</v>
+        <v>4807536000</v>
       </c>
       <c r="AA11">
-        <v>282379000</v>
+        <v>2033615000</v>
       </c>
       <c r="AB11">
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>147105000</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>135989000</v>
       </c>
       <c r="AE11">
-        <v>194140000</v>
+        <v>-147105000</v>
       </c>
       <c r="AF11">
-        <v>476519000</v>
+        <v>2169604000</v>
       </c>
       <c r="AG11">
-        <v>1108872000</v>
+        <v>5009166000</v>
       </c>
       <c r="AH11">
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>769128000</v>
+        <v>0</v>
       </c>
       <c r="AJ11">
-        <v>171115000</v>
+        <v>0</v>
       </c>
       <c r="AK11">
-        <v>2049115000</v>
+        <v>5009166000</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>17660027000</v>
       </c>
       <c r="AM11">
         <v>0</v>
       </c>
       <c r="AN11">
-        <v>2525634000</v>
+        <v>24838797000</v>
       </c>
       <c r="AO11">
-        <v>148416000</v>
+        <v>0</v>
       </c>
       <c r="AP11">
-        <v>201247000</v>
+        <v>202693000</v>
       </c>
       <c r="AQ11">
-        <v>2121214000</v>
+        <v>9789345000</v>
       </c>
       <c r="AR11">
-        <v>50461000</v>
+        <v>401746000</v>
       </c>
       <c r="AS11">
-        <v>-297957000</v>
+        <v>2247120000</v>
       </c>
       <c r="AT11">
-        <v>2223381000</v>
+        <v>12640904000</v>
       </c>
       <c r="AU11">
-        <v>2223381000</v>
+        <v>12640904000</v>
       </c>
       <c r="AV11">
-        <v>4749015000</v>
+        <v>37479701000</v>
       </c>
       <c r="AW11">
         <v>0</v>
       </c>
       <c r="AX11">
-        <v>4749015000</v>
+        <v>37479701000</v>
       </c>
       <c r="AY11">
         <v>0</v>
       </c>
       <c r="AZ11">
-        <v>1108872000</v>
+        <v>5009166000</v>
       </c>
       <c r="BA11">
-        <v>1104429000</v>
+        <v>4393440000</v>
       </c>
       <c r="BB11" s="3" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="BC11" s="3" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:55">
@@ -2833,52 +2761,52 @@
         <v>65</v>
       </c>
       <c r="B12" s="2">
-        <v>38352</v>
+        <v>41274</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E12" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="H12" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="I12" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="J12">
-        <v>20980000</v>
+        <v>876435000</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>20980000</v>
+        <v>876435000</v>
       </c>
       <c r="M12">
-        <v>450974000</v>
+        <v>1685781000</v>
       </c>
       <c r="N12">
-        <v>40037000</v>
+        <v>683187000</v>
       </c>
       <c r="O12">
-        <v>74812000</v>
+        <v>344481000</v>
       </c>
       <c r="P12">
-        <v>586803000</v>
+        <v>3589884000</v>
       </c>
       <c r="Q12">
-        <v>5101603000</v>
+        <v>23337681000</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -2896,49 +2824,49 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>110517000</v>
+        <v>409013000</v>
       </c>
       <c r="X12">
-        <v>5212120000</v>
+        <v>23746694000</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>5798923000</v>
+        <v>27336578000</v>
       </c>
       <c r="AA12">
-        <v>424581000</v>
+        <v>2078948000</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>406579000</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>162083000</v>
       </c>
       <c r="AD12">
         <v>0</v>
       </c>
       <c r="AE12">
-        <v>207623000</v>
+        <v>276448000</v>
       </c>
       <c r="AF12">
-        <v>632204000</v>
+        <v>2924058000</v>
       </c>
       <c r="AG12">
-        <v>1077622000</v>
+        <v>5905602000</v>
       </c>
       <c r="AH12">
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>902354000</v>
+        <v>4327396000</v>
       </c>
       <c r="AJ12">
-        <v>241319000</v>
+        <v>894758000</v>
       </c>
       <c r="AK12">
-        <v>2221295000</v>
+        <v>11127756000</v>
       </c>
       <c r="AL12">
         <v>0</v>
@@ -2947,52 +2875,52 @@
         <v>0</v>
       </c>
       <c r="AN12">
-        <v>2853499000</v>
+        <v>14051814000</v>
       </c>
       <c r="AO12">
-        <v>98826000</v>
+        <v>0</v>
       </c>
       <c r="AP12">
-        <v>201247000</v>
+        <v>202720000</v>
       </c>
       <c r="AQ12">
-        <v>2706845000</v>
+        <v>10175631000</v>
       </c>
       <c r="AR12">
-        <v>118154000</v>
+        <v>439895000</v>
       </c>
       <c r="AS12">
-        <v>-179648000</v>
+        <v>2466518000</v>
       </c>
       <c r="AT12">
-        <v>2945424000</v>
+        <v>13284764000</v>
       </c>
       <c r="AU12">
-        <v>2945424000</v>
+        <v>13284764000</v>
       </c>
       <c r="AV12">
-        <v>5798923000</v>
+        <v>27336578000</v>
       </c>
       <c r="AW12">
         <v>0</v>
       </c>
       <c r="AX12">
-        <v>5798923000</v>
+        <v>27336578000</v>
       </c>
       <c r="AY12">
         <v>0</v>
       </c>
       <c r="AZ12">
-        <v>1077622000</v>
+        <v>6312181000</v>
       </c>
       <c r="BA12">
-        <v>1056642000</v>
+        <v>5435746000</v>
       </c>
       <c r="BB12" s="3" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="BC12" s="3" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:55">
@@ -3000,52 +2928,52 @@
         <v>66</v>
       </c>
       <c r="B13" s="2">
-        <v>38717</v>
+        <v>41639</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F13" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G13" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="H13" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="I13" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="J13">
-        <v>643811000</v>
+        <v>1318209000</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>643811000</v>
+        <v>1318209000</v>
       </c>
       <c r="M13">
-        <v>762462000</v>
+        <v>1663650000</v>
       </c>
       <c r="N13">
-        <v>63215000</v>
+        <v>563268000</v>
       </c>
       <c r="O13">
-        <v>93750000</v>
+        <v>526888000</v>
       </c>
       <c r="P13">
-        <v>1563238000</v>
+        <v>4072015000</v>
       </c>
       <c r="Q13">
-        <v>6087179000</v>
+        <v>26148836000</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -3063,49 +2991,49 @@
         <v>0</v>
       </c>
       <c r="W13">
-        <v>102903000</v>
+        <v>353387000</v>
       </c>
       <c r="X13">
-        <v>6190082000</v>
+        <v>26502223000</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>7753320000</v>
+        <v>30574238000</v>
       </c>
       <c r="AA13">
-        <v>679548000</v>
+        <v>2254418000</v>
       </c>
       <c r="AB13">
-        <v>126075000</v>
+        <v>6579000</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>159365000</v>
       </c>
       <c r="AD13">
         <v>0</v>
       </c>
       <c r="AE13">
-        <v>366418000</v>
+        <v>441354000</v>
       </c>
       <c r="AF13">
-        <v>1172041000</v>
+        <v>2861716000</v>
       </c>
       <c r="AG13">
-        <v>858992000</v>
+        <v>5906642000</v>
       </c>
       <c r="AH13">
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>1122588000</v>
+        <v>5522354000</v>
       </c>
       <c r="AJ13">
-        <v>283407000</v>
+        <v>865067000</v>
       </c>
       <c r="AK13">
-        <v>2264987000</v>
+        <v>12294063000</v>
       </c>
       <c r="AL13">
         <v>0</v>
@@ -3114,52 +3042,52 @@
         <v>0</v>
       </c>
       <c r="AN13">
-        <v>3437028000</v>
+        <v>15155779000</v>
       </c>
       <c r="AO13">
-        <v>99062000</v>
+        <v>0</v>
       </c>
       <c r="AP13">
-        <v>202495000</v>
+        <v>202732000</v>
       </c>
       <c r="AQ13">
-        <v>3920483000</v>
+        <v>12168277000</v>
       </c>
       <c r="AR13">
-        <v>140891000</v>
+        <v>415834000</v>
       </c>
       <c r="AS13">
-        <v>-46639000</v>
+        <v>2631616000</v>
       </c>
       <c r="AT13">
-        <v>4316292000</v>
+        <v>15418459000</v>
       </c>
       <c r="AU13">
-        <v>4316292000</v>
+        <v>15418459000</v>
       </c>
       <c r="AV13">
-        <v>7753320000</v>
+        <v>30574238000</v>
       </c>
       <c r="AW13">
         <v>0</v>
       </c>
       <c r="AX13">
-        <v>7753320000</v>
+        <v>30574238000</v>
       </c>
       <c r="AY13">
         <v>0</v>
       </c>
       <c r="AZ13">
-        <v>985067000</v>
+        <v>5913221000</v>
       </c>
       <c r="BA13">
-        <v>341256000</v>
+        <v>4595012000</v>
       </c>
       <c r="BB13" s="3" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="BC13" s="3" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:55">
@@ -3167,52 +3095,52 @@
         <v>67</v>
       </c>
       <c r="B14" s="2">
-        <v>39082</v>
+        <v>42004</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F14" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G14" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="H14" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="I14" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="J14">
-        <v>218255000</v>
+        <v>2087213000</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>218255000</v>
+        <v>2087213000</v>
       </c>
       <c r="M14">
-        <v>848445000</v>
+        <v>1850932000</v>
       </c>
       <c r="N14">
-        <v>113591000</v>
+        <v>706597000</v>
       </c>
       <c r="O14">
-        <v>169789000</v>
+        <v>771279000</v>
       </c>
       <c r="P14">
-        <v>1350080000</v>
+        <v>5416021000</v>
       </c>
       <c r="Q14">
-        <v>7944047000</v>
+        <v>29172644000</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -3230,49 +3158,49 @@
         <v>0</v>
       </c>
       <c r="W14">
-        <v>108033000</v>
+        <v>174022000</v>
       </c>
       <c r="X14">
-        <v>8052080000</v>
+        <v>29346666000</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>9402160000</v>
+        <v>34762687000</v>
       </c>
       <c r="AA14">
-        <v>896572000</v>
+        <v>2860548000</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>6579000</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>140098000</v>
       </c>
       <c r="AD14">
         <v>0</v>
       </c>
       <c r="AE14">
-        <v>358440000</v>
+        <v>377083000</v>
       </c>
       <c r="AF14">
-        <v>1255012000</v>
+        <v>3384308000</v>
       </c>
       <c r="AG14">
-        <v>733442000</v>
+        <v>5903354000</v>
       </c>
       <c r="AH14">
         <v>0</v>
       </c>
       <c r="AI14">
-        <v>1513128000</v>
+        <v>6822946000</v>
       </c>
       <c r="AJ14">
-        <v>300907000</v>
+        <v>939497000</v>
       </c>
       <c r="AK14">
-        <v>2547477000</v>
+        <v>13665797000</v>
       </c>
       <c r="AL14">
         <v>0</v>
@@ -3281,52 +3209,52 @@
         <v>0</v>
       </c>
       <c r="AN14">
-        <v>3802489000</v>
+        <v>17050105000</v>
       </c>
       <c r="AO14">
-        <v>52887000</v>
+        <v>0</v>
       </c>
       <c r="AP14">
-        <v>202495000</v>
+        <v>205492000</v>
       </c>
       <c r="AQ14">
-        <v>5151034000</v>
+        <v>14763098000</v>
       </c>
       <c r="AR14">
-        <v>176704000</v>
+        <v>-23056000</v>
       </c>
       <c r="AS14">
-        <v>16551000</v>
+        <v>2767048000</v>
       </c>
       <c r="AT14">
-        <v>5599671000</v>
+        <v>17712582000</v>
       </c>
       <c r="AU14">
-        <v>5599671000</v>
+        <v>17712582000</v>
       </c>
       <c r="AV14">
-        <v>9402160000</v>
+        <v>34762687000</v>
       </c>
       <c r="AW14">
         <v>0</v>
       </c>
       <c r="AX14">
-        <v>9402160000</v>
+        <v>34762687000</v>
       </c>
       <c r="AY14">
         <v>0</v>
       </c>
       <c r="AZ14">
-        <v>733442000</v>
+        <v>5909933000</v>
       </c>
       <c r="BA14">
-        <v>515187000</v>
+        <v>3822720000</v>
       </c>
       <c r="BB14" s="3" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="BC14" s="3" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:55">
@@ -3334,166 +3262,166 @@
         <v>68</v>
       </c>
       <c r="B15" s="2">
-        <v>39447</v>
+        <v>42369</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F15" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G15" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="H15" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="I15" t="s">
+        <v>138</v>
+      </c>
+      <c r="J15">
+        <v>718506000</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>718506000</v>
+      </c>
+      <c r="M15">
+        <v>971314000</v>
+      </c>
+      <c r="N15">
+        <v>598935000</v>
+      </c>
+      <c r="O15">
+        <v>303489000</v>
+      </c>
+      <c r="P15">
+        <v>2592244000</v>
+      </c>
+      <c r="Q15">
+        <v>24210721000</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>172279000</v>
+      </c>
+      <c r="X15">
+        <v>24383000000</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>26975244000</v>
+      </c>
+      <c r="AA15">
+        <v>1471953000</v>
+      </c>
+      <c r="AB15">
+        <v>6579000</v>
+      </c>
+      <c r="AC15">
+        <v>93618000</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>247137000</v>
+      </c>
+      <c r="AF15">
+        <v>1819287000</v>
+      </c>
+      <c r="AG15">
+        <v>6653685000</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>4587902000</v>
+      </c>
+      <c r="AJ15">
+        <v>971335000</v>
+      </c>
+      <c r="AK15">
+        <v>12212922000</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>14032209000</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>205502000</v>
+      </c>
+      <c r="AQ15">
+        <v>9870816000</v>
+      </c>
+      <c r="AR15">
+        <v>-33338000</v>
+      </c>
+      <c r="AS15">
+        <v>2900055000</v>
+      </c>
+      <c r="AT15">
+        <v>12943035000</v>
+      </c>
+      <c r="AU15">
+        <v>12943035000</v>
+      </c>
+      <c r="AV15">
+        <v>26975244000</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>26975244000</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>6660264000</v>
+      </c>
+      <c r="BA15">
+        <v>5941758000</v>
+      </c>
+      <c r="BB15" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="BC15" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="J15">
-        <v>54231000</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>54231000</v>
-      </c>
-      <c r="M15">
-        <v>946040000</v>
-      </c>
-      <c r="N15">
-        <v>102322000</v>
-      </c>
-      <c r="O15">
-        <v>189446000</v>
-      </c>
-      <c r="P15">
-        <v>1292039000</v>
-      </c>
-      <c r="Q15">
-        <v>10429254000</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>367614000</v>
-      </c>
-      <c r="X15">
-        <v>10796868000</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <v>12088907000</v>
-      </c>
-      <c r="AA15">
-        <v>1152140000</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>322030000</v>
-      </c>
-      <c r="AF15">
-        <v>1474170000</v>
-      </c>
-      <c r="AG15">
-        <v>1185000000</v>
-      </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
-      <c r="AI15">
-        <v>2071307000</v>
-      </c>
-      <c r="AJ15">
-        <v>368336000</v>
-      </c>
-      <c r="AK15">
-        <v>3624643000</v>
-      </c>
-      <c r="AL15">
-        <v>0</v>
-      </c>
-      <c r="AM15">
-        <v>0</v>
-      </c>
-      <c r="AN15">
-        <v>5098813000</v>
-      </c>
-      <c r="AO15">
-        <v>4977000</v>
-      </c>
-      <c r="AP15">
-        <v>202495000</v>
-      </c>
-      <c r="AQ15">
-        <v>6156721000</v>
-      </c>
-      <c r="AR15">
-        <v>466702000</v>
-      </c>
-      <c r="AS15">
-        <v>159199000</v>
-      </c>
-      <c r="AT15">
-        <v>6990094000</v>
-      </c>
-      <c r="AU15">
-        <v>6990094000</v>
-      </c>
-      <c r="AV15">
-        <v>12088907000</v>
-      </c>
-      <c r="AW15">
-        <v>0</v>
-      </c>
-      <c r="AX15">
-        <v>12088907000</v>
-      </c>
-      <c r="AY15">
-        <v>0</v>
-      </c>
-      <c r="AZ15">
-        <v>1185000000</v>
-      </c>
-      <c r="BA15">
-        <v>1130769000</v>
-      </c>
-      <c r="BB15" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="BC15" s="3" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:55">
@@ -3501,52 +3429,52 @@
         <v>69</v>
       </c>
       <c r="B16" s="2">
-        <v>39813</v>
+        <v>42735</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G16" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="H16" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="I16" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="J16">
-        <v>331311000</v>
+        <v>1599895000</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>331311000</v>
+        <v>1599895000</v>
       </c>
       <c r="M16">
-        <v>749748000</v>
+        <v>1228625000</v>
       </c>
       <c r="N16">
-        <v>187970000</v>
+        <v>350017000</v>
       </c>
       <c r="O16">
-        <v>839422000</v>
+        <v>376066000</v>
       </c>
       <c r="P16">
-        <v>2108451000</v>
+        <v>3554603000</v>
       </c>
       <c r="Q16">
-        <v>13657302000</v>
+        <v>25707078000</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -3564,49 +3492,49 @@
         <v>0</v>
       </c>
       <c r="W16">
-        <v>185473000</v>
+        <v>197752000</v>
       </c>
       <c r="X16">
-        <v>13842775000</v>
+        <v>25904830000</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>15951226000</v>
+        <v>29459433000</v>
       </c>
       <c r="AA16">
-        <v>1122209000</v>
+        <v>1511826000</v>
       </c>
       <c r="AB16">
-        <v>37000000</v>
+        <v>6579000</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>118411000</v>
       </c>
       <c r="AD16">
         <v>0</v>
       </c>
       <c r="AE16">
-        <v>605707000</v>
+        <v>390475000</v>
       </c>
       <c r="AF16">
-        <v>1764916000</v>
+        <v>2027291000</v>
       </c>
       <c r="AG16">
-        <v>1860000000</v>
+        <v>6979779000</v>
       </c>
       <c r="AH16">
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>2813522000</v>
+        <v>5188640000</v>
       </c>
       <c r="AJ16">
-        <v>498291000</v>
+        <v>1282142000</v>
       </c>
       <c r="AK16">
-        <v>5171813000</v>
+        <v>13450561000</v>
       </c>
       <c r="AL16">
         <v>0</v>
@@ -3615,52 +3543,52 @@
         <v>0</v>
       </c>
       <c r="AN16">
-        <v>6936729000</v>
+        <v>15477852000</v>
       </c>
       <c r="AO16">
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>202498000</v>
+        <v>205770000</v>
       </c>
       <c r="AQ16">
-        <v>8466143000</v>
+        <v>8398118000</v>
       </c>
       <c r="AR16">
-        <v>27787000</v>
+        <v>-19010000</v>
       </c>
       <c r="AS16">
-        <v>318069000</v>
+        <v>5396703000</v>
       </c>
       <c r="AT16">
-        <v>9014497000</v>
+        <v>13981581000</v>
       </c>
       <c r="AU16">
-        <v>9014497000</v>
+        <v>13981581000</v>
       </c>
       <c r="AV16">
-        <v>15951226000</v>
+        <v>29459433000</v>
       </c>
       <c r="AW16">
         <v>0</v>
       </c>
       <c r="AX16">
-        <v>15951226000</v>
+        <v>29459433000</v>
       </c>
       <c r="AY16">
         <v>0</v>
       </c>
       <c r="AZ16">
-        <v>1897000000</v>
+        <v>6986358000</v>
       </c>
       <c r="BA16">
-        <v>1565689000</v>
+        <v>5386463000</v>
       </c>
       <c r="BB16" s="3" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="BC16" s="3" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:55">
@@ -3668,52 +3596,52 @@
         <v>70</v>
       </c>
       <c r="B17" s="2">
-        <v>40178</v>
+        <v>43100</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E17" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G17" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="H17" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="I17" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="J17">
-        <v>685751000</v>
+        <v>834228000</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>685751000</v>
+        <v>834228000</v>
       </c>
       <c r="M17">
-        <v>808426000</v>
+        <v>1710851000</v>
       </c>
       <c r="N17">
-        <v>261723000</v>
+        <v>483865000</v>
       </c>
       <c r="O17">
-        <v>83641000</v>
+        <v>250164000</v>
       </c>
       <c r="P17">
-        <v>1839541000</v>
+        <v>3279108000</v>
       </c>
       <c r="Q17">
-        <v>16139225000</v>
+        <v>25665037000</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -3728,52 +3656,52 @@
         <v>0</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>17506000</v>
       </c>
       <c r="W17">
-        <v>139901000</v>
+        <v>871427000</v>
       </c>
       <c r="X17">
-        <v>16279126000</v>
+        <v>26553970000</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>18118667000</v>
+        <v>29833078000</v>
       </c>
       <c r="AA17">
-        <v>979139000</v>
+        <v>1847131000</v>
       </c>
       <c r="AB17">
-        <v>37000000</v>
+        <v>356235000</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>148874000</v>
       </c>
       <c r="AD17">
         <v>0</v>
       </c>
       <c r="AE17">
-        <v>329421000</v>
+        <v>373302000</v>
       </c>
       <c r="AF17">
-        <v>1345560000</v>
+        <v>2725542000</v>
       </c>
       <c r="AG17">
-        <v>2760000000</v>
+        <v>6030836000</v>
       </c>
       <c r="AH17">
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>3382413000</v>
+        <v>3518214000</v>
       </c>
       <c r="AJ17">
-        <v>632652000</v>
+        <v>1275213000</v>
       </c>
       <c r="AK17">
-        <v>6775065000</v>
+        <v>10824263000</v>
       </c>
       <c r="AL17">
         <v>0</v>
@@ -3782,52 +3710,52 @@
         <v>0</v>
       </c>
       <c r="AN17">
-        <v>8120625000</v>
+        <v>13549805000</v>
       </c>
       <c r="AO17">
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>202526000</v>
+        <v>205788000</v>
       </c>
       <c r="AQ17">
-        <v>8866747000</v>
+        <v>10593533000</v>
       </c>
       <c r="AR17">
-        <v>339720000</v>
+        <v>-19297000</v>
       </c>
       <c r="AS17">
-        <v>589049000</v>
+        <v>5503249000</v>
       </c>
       <c r="AT17">
-        <v>9998042000</v>
+        <v>16283273000</v>
       </c>
       <c r="AU17">
-        <v>9998042000</v>
+        <v>16283273000</v>
       </c>
       <c r="AV17">
-        <v>18118667000</v>
+        <v>29833078000</v>
       </c>
       <c r="AW17">
         <v>0</v>
       </c>
       <c r="AX17">
-        <v>18118667000</v>
+        <v>29833078000</v>
       </c>
       <c r="AY17">
         <v>0</v>
       </c>
       <c r="AZ17">
-        <v>2797000000</v>
+        <v>6387071000</v>
       </c>
       <c r="BA17">
-        <v>2111249000</v>
+        <v>5552843000</v>
       </c>
       <c r="BB17" s="3" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="BC17" s="3" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:55">
@@ -3835,52 +3763,52 @@
         <v>71</v>
       </c>
       <c r="B18" s="2">
-        <v>40543</v>
+        <v>43465</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G18" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="H18" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="I18" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="J18">
-        <v>788853000</v>
+        <v>1555634000</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>788853000</v>
+        <v>1555634000</v>
       </c>
       <c r="M18">
-        <v>1168195000</v>
+        <v>2343124000</v>
       </c>
       <c r="N18">
-        <v>415792000</v>
+        <v>859359000</v>
       </c>
       <c r="O18">
-        <v>154606000</v>
+        <v>299273000</v>
       </c>
       <c r="P18">
-        <v>2527446000</v>
+        <v>5057390000</v>
       </c>
       <c r="Q18">
-        <v>18680900000</v>
+        <v>28075519000</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -3895,52 +3823,52 @@
         <v>0</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>777000</v>
       </c>
       <c r="W18">
-        <v>415887000</v>
+        <v>800788000</v>
       </c>
       <c r="X18">
-        <v>19096787000</v>
+        <v>28877084000</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>21624233000</v>
+        <v>33934474000</v>
       </c>
       <c r="AA18">
-        <v>1664944000</v>
+        <v>2239850000</v>
       </c>
       <c r="AB18">
-        <v>220000000</v>
+        <v>913093000</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>214726000</v>
       </c>
       <c r="AD18">
         <v>0</v>
       </c>
       <c r="AE18">
-        <v>335155000</v>
+        <v>360695000</v>
       </c>
       <c r="AF18">
-        <v>2220099000</v>
+        <v>3728364000</v>
       </c>
       <c r="AG18">
-        <v>5003341000</v>
+        <v>5170169000</v>
       </c>
       <c r="AH18">
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>3501706000</v>
+        <v>4413398000</v>
       </c>
       <c r="AJ18">
-        <v>667455000</v>
+        <v>1258355000</v>
       </c>
       <c r="AK18">
-        <v>9172502000</v>
+        <v>10841922000</v>
       </c>
       <c r="AL18">
         <v>0</v>
@@ -3949,52 +3877,52 @@
         <v>0</v>
       </c>
       <c r="AN18">
-        <v>11392601000</v>
+        <v>14570286000</v>
       </c>
       <c r="AO18">
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>202542000</v>
+        <v>205804000</v>
       </c>
       <c r="AQ18">
-        <v>8870179000</v>
+        <v>13543130000</v>
       </c>
       <c r="AR18">
-        <v>440071000</v>
+        <v>-1358000</v>
       </c>
       <c r="AS18">
-        <v>718840000</v>
+        <v>5616612000</v>
       </c>
       <c r="AT18">
-        <v>10231632000</v>
+        <v>19364188000</v>
       </c>
       <c r="AU18">
-        <v>10231632000</v>
+        <v>19364188000</v>
       </c>
       <c r="AV18">
-        <v>21624233000</v>
+        <v>33934474000</v>
       </c>
       <c r="AW18">
         <v>0</v>
       </c>
       <c r="AX18">
-        <v>21624233000</v>
+        <v>33934474000</v>
       </c>
       <c r="AY18">
         <v>0</v>
       </c>
       <c r="AZ18">
-        <v>5223341000</v>
+        <v>6083262000</v>
       </c>
       <c r="BA18">
-        <v>4434488000</v>
+        <v>4527628000</v>
       </c>
       <c r="BB18" s="3" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="BC18" s="3" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:55">
@@ -4002,52 +3930,52 @@
         <v>72</v>
       </c>
       <c r="B19" s="2">
-        <v>40907</v>
+        <v>43830</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E19" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G19" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="H19" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="I19" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="J19">
-        <v>615726000</v>
+        <v>2027972000</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>615726000</v>
+        <v>2027972000</v>
       </c>
       <c r="M19">
-        <v>1451227000</v>
+        <v>2153323000</v>
       </c>
       <c r="N19">
-        <v>590594000</v>
+        <v>767297000</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>324747000</v>
       </c>
       <c r="P19">
-        <v>2657547000</v>
+        <v>5273339000</v>
       </c>
       <c r="Q19">
-        <v>2149989000</v>
+        <v>30364595000</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -4062,106 +3990,106 @@
         <v>0</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>2363000</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>1484311000</v>
       </c>
       <c r="X19">
-        <v>2149989000</v>
+        <v>31851269000</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>4807536000</v>
+        <v>37124608000</v>
       </c>
       <c r="AA19">
-        <v>2033615000</v>
+        <v>2429127000</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>1383889000</v>
       </c>
       <c r="AC19">
-        <v>147105000</v>
+        <v>254850000</v>
       </c>
       <c r="AD19">
-        <v>135989000</v>
+        <v>0</v>
       </c>
       <c r="AE19">
-        <v>-147105000</v>
+        <v>419122000</v>
       </c>
       <c r="AF19">
-        <v>2169604000</v>
+        <v>4486988000</v>
       </c>
       <c r="AG19">
-        <v>5009166000</v>
+        <v>4160919000</v>
       </c>
       <c r="AH19">
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>5046101000</v>
       </c>
       <c r="AJ19">
-        <v>0</v>
+        <v>1789884000</v>
       </c>
       <c r="AK19">
-        <v>5009166000</v>
+        <v>10996904000</v>
       </c>
       <c r="AL19">
-        <v>17660027000</v>
+        <v>0</v>
       </c>
       <c r="AM19">
-        <v>0</v>
+        <v>369365000</v>
       </c>
       <c r="AN19">
-        <v>24838797000</v>
+        <v>15483892000</v>
       </c>
       <c r="AO19">
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>202693000</v>
+        <v>205822000</v>
       </c>
       <c r="AQ19">
-        <v>9789345000</v>
+        <v>15648604000</v>
       </c>
       <c r="AR19">
-        <v>401746000</v>
+        <v>-4652000</v>
       </c>
       <c r="AS19">
-        <v>2247120000</v>
+        <v>5790942000</v>
       </c>
       <c r="AT19">
-        <v>12640904000</v>
+        <v>21640716000</v>
       </c>
       <c r="AU19">
-        <v>12640904000</v>
+        <v>21640716000</v>
       </c>
       <c r="AV19">
-        <v>37479701000</v>
+        <v>37124608000</v>
       </c>
       <c r="AW19">
         <v>0</v>
       </c>
       <c r="AX19">
-        <v>37479701000</v>
+        <v>37124608000</v>
       </c>
       <c r="AY19">
         <v>0</v>
       </c>
       <c r="AZ19">
-        <v>5009166000</v>
+        <v>5544808000</v>
       </c>
       <c r="BA19">
-        <v>4393440000</v>
+        <v>3516836000</v>
       </c>
       <c r="BB19" s="3" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="BC19" s="3" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:55">
@@ -4169,52 +4097,52 @@
         <v>73</v>
       </c>
       <c r="B20" s="2">
-        <v>41274</v>
+        <v>44196</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D20" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E20" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F20" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G20" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="H20" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="I20" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="J20">
-        <v>876435000</v>
+        <v>3328928000</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>876435000</v>
+        <v>3328928000</v>
       </c>
       <c r="M20">
-        <v>1685781000</v>
+        <v>1545293000</v>
       </c>
       <c r="N20">
-        <v>683187000</v>
+        <v>629401000</v>
       </c>
       <c r="O20">
-        <v>344481000</v>
+        <v>358546000</v>
       </c>
       <c r="P20">
-        <v>3589884000</v>
+        <v>5862168000</v>
       </c>
       <c r="Q20">
-        <v>23337681000</v>
+        <v>28598627000</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -4229,106 +4157,106 @@
         <v>0</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>2127000</v>
       </c>
       <c r="W20">
-        <v>409013000</v>
+        <v>1341679000</v>
       </c>
       <c r="X20">
-        <v>23746694000</v>
+        <v>29942433000</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>27336578000</v>
+        <v>35804601000</v>
       </c>
       <c r="AA20">
-        <v>2078948000</v>
+        <v>1681193000</v>
       </c>
       <c r="AB20">
-        <v>406579000</v>
+        <v>1076143000</v>
       </c>
       <c r="AC20">
-        <v>162083000</v>
+        <v>205754000</v>
       </c>
       <c r="AD20">
         <v>0</v>
       </c>
       <c r="AE20">
-        <v>276448000</v>
+        <v>497014000</v>
       </c>
       <c r="AF20">
-        <v>2924058000</v>
+        <v>3460104000</v>
       </c>
       <c r="AG20">
-        <v>5905602000</v>
+        <v>5035351000</v>
       </c>
       <c r="AH20">
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>4327396000</v>
+        <v>4859327000</v>
       </c>
       <c r="AJ20">
-        <v>894758000</v>
+        <v>2147932000</v>
       </c>
       <c r="AK20">
-        <v>11127756000</v>
+        <v>12042610000</v>
       </c>
       <c r="AL20">
         <v>0</v>
       </c>
       <c r="AM20">
-        <v>0</v>
+        <v>295089000</v>
       </c>
       <c r="AN20">
-        <v>14051814000</v>
+        <v>15502714000</v>
       </c>
       <c r="AO20">
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>202720000</v>
+        <v>205837000</v>
       </c>
       <c r="AQ20">
-        <v>10175631000</v>
+        <v>14169969000</v>
       </c>
       <c r="AR20">
-        <v>439895000</v>
+        <v>-12328000</v>
       </c>
       <c r="AS20">
-        <v>2466518000</v>
+        <v>5938409000</v>
       </c>
       <c r="AT20">
-        <v>13284764000</v>
+        <v>20301887000</v>
       </c>
       <c r="AU20">
-        <v>13284764000</v>
+        <v>20301887000</v>
       </c>
       <c r="AV20">
-        <v>27336578000</v>
+        <v>35804601000</v>
       </c>
       <c r="AW20">
         <v>0</v>
       </c>
       <c r="AX20">
-        <v>27336578000</v>
+        <v>35804601000</v>
       </c>
       <c r="AY20">
         <v>0</v>
       </c>
       <c r="AZ20">
-        <v>6312181000</v>
+        <v>6111494000</v>
       </c>
       <c r="BA20">
-        <v>5435746000</v>
+        <v>2782566000</v>
       </c>
       <c r="BB20" s="3" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="BC20" s="3" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:55">
@@ -4336,52 +4264,52 @@
         <v>74</v>
       </c>
       <c r="B21" s="2">
-        <v>41639</v>
+        <v>44561</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E21" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F21" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G21" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="H21" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="I21" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="J21">
-        <v>1318209000</v>
+        <v>5209000000</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1318209000</v>
+        <v>5209000000</v>
       </c>
       <c r="M21">
-        <v>1663650000</v>
+        <v>2335000000</v>
       </c>
       <c r="N21">
-        <v>563268000</v>
+        <v>584000000</v>
       </c>
       <c r="O21">
-        <v>526888000</v>
+        <v>456000000</v>
       </c>
       <c r="P21">
-        <v>4072015000</v>
+        <v>8584000000</v>
       </c>
       <c r="Q21">
-        <v>26148836000</v>
+        <v>28426000000</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -4396,1488 +4324,148 @@
         <v>0</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>11000000</v>
       </c>
       <c r="W21">
-        <v>353387000</v>
+        <v>1215000000</v>
       </c>
       <c r="X21">
-        <v>26502223000</v>
+        <v>29652000000</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>30574238000</v>
+        <v>38236000000</v>
       </c>
       <c r="AA21">
-        <v>2254418000</v>
+        <v>2242000000</v>
       </c>
       <c r="AB21">
-        <v>6579000</v>
+        <v>277000000</v>
       </c>
       <c r="AC21">
-        <v>159365000</v>
+        <v>518000000</v>
       </c>
       <c r="AD21">
         <v>0</v>
       </c>
       <c r="AE21">
-        <v>441354000</v>
+        <v>1005000000</v>
       </c>
       <c r="AF21">
-        <v>2861716000</v>
+        <v>4042000000</v>
       </c>
       <c r="AG21">
-        <v>5906642000</v>
+        <v>5630000000</v>
       </c>
       <c r="AH21">
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>5522354000</v>
+        <v>4749000000</v>
       </c>
       <c r="AJ21">
-        <v>865067000</v>
+        <v>1635000000</v>
       </c>
       <c r="AK21">
-        <v>12294063000</v>
+        <v>12014000000</v>
       </c>
       <c r="AL21">
         <v>0</v>
       </c>
       <c r="AM21">
-        <v>0</v>
+        <v>1048000000</v>
       </c>
       <c r="AN21">
-        <v>15155779000</v>
+        <v>16056000000</v>
       </c>
       <c r="AO21">
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>202732000</v>
+        <v>206000000</v>
       </c>
       <c r="AQ21">
-        <v>12168277000</v>
+        <v>15919000000</v>
       </c>
       <c r="AR21">
-        <v>415834000</v>
+        <v>-12000000</v>
       </c>
       <c r="AS21">
-        <v>2631616000</v>
+        <v>0</v>
       </c>
       <c r="AT21">
-        <v>15418459000</v>
+        <v>22180000000</v>
       </c>
       <c r="AU21">
-        <v>15418459000</v>
+        <v>22180000000</v>
       </c>
       <c r="AV21">
-        <v>30574238000</v>
+        <v>38236000000</v>
       </c>
       <c r="AW21">
         <v>0</v>
       </c>
       <c r="AX21">
-        <v>30574238000</v>
+        <v>38236000000</v>
       </c>
       <c r="AY21">
         <v>0</v>
       </c>
       <c r="AZ21">
-        <v>5913221000</v>
+        <v>5907000000</v>
       </c>
       <c r="BA21">
-        <v>4595012000</v>
+        <v>698000000</v>
       </c>
       <c r="BB21" s="3" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="BC21" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="22" spans="1:55">
-      <c r="A22" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" s="2">
-        <v>42004</v>
-      </c>
-      <c r="C22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" t="s">
-        <v>106</v>
-      </c>
-      <c r="G22" t="s">
-        <v>134</v>
-      </c>
-      <c r="H22" t="s">
-        <v>162</v>
-      </c>
-      <c r="I22" t="s">
-        <v>170</v>
-      </c>
-      <c r="J22">
-        <v>2087213000</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>2087213000</v>
-      </c>
-      <c r="M22">
-        <v>1850932000</v>
-      </c>
-      <c r="N22">
-        <v>706597000</v>
-      </c>
-      <c r="O22">
-        <v>771279000</v>
-      </c>
-      <c r="P22">
-        <v>5416021000</v>
-      </c>
-      <c r="Q22">
-        <v>29172644000</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>174022000</v>
-      </c>
-      <c r="X22">
-        <v>29346666000</v>
-      </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
-      <c r="Z22">
-        <v>34762687000</v>
-      </c>
-      <c r="AA22">
-        <v>2860548000</v>
-      </c>
-      <c r="AB22">
-        <v>6579000</v>
-      </c>
-      <c r="AC22">
-        <v>140098000</v>
-      </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
-      <c r="AE22">
-        <v>377083000</v>
-      </c>
-      <c r="AF22">
-        <v>3384308000</v>
-      </c>
-      <c r="AG22">
-        <v>5903354000</v>
-      </c>
-      <c r="AH22">
-        <v>0</v>
-      </c>
-      <c r="AI22">
-        <v>6822946000</v>
-      </c>
-      <c r="AJ22">
-        <v>939497000</v>
-      </c>
-      <c r="AK22">
-        <v>13665797000</v>
-      </c>
-      <c r="AL22">
-        <v>0</v>
-      </c>
-      <c r="AM22">
-        <v>0</v>
-      </c>
-      <c r="AN22">
-        <v>17050105000</v>
-      </c>
-      <c r="AO22">
-        <v>0</v>
-      </c>
-      <c r="AP22">
-        <v>205492000</v>
-      </c>
-      <c r="AQ22">
-        <v>14763098000</v>
-      </c>
-      <c r="AR22">
-        <v>-23056000</v>
-      </c>
-      <c r="AS22">
-        <v>2767048000</v>
-      </c>
-      <c r="AT22">
-        <v>17712582000</v>
-      </c>
-      <c r="AU22">
-        <v>17712582000</v>
-      </c>
-      <c r="AV22">
-        <v>34762687000</v>
-      </c>
-      <c r="AW22">
-        <v>0</v>
-      </c>
-      <c r="AX22">
-        <v>34762687000</v>
-      </c>
-      <c r="AY22">
-        <v>0</v>
-      </c>
-      <c r="AZ22">
-        <v>5909933000</v>
-      </c>
-      <c r="BA22">
-        <v>3822720000</v>
-      </c>
-      <c r="BB22" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="BC22" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="23" spans="1:55">
-      <c r="A23" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="2">
-        <v>42369</v>
-      </c>
-      <c r="C23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" t="s">
-        <v>85</v>
-      </c>
-      <c r="F23" t="s">
-        <v>107</v>
-      </c>
-      <c r="G23" t="s">
-        <v>135</v>
-      </c>
-      <c r="H23" t="s">
-        <v>163</v>
-      </c>
-      <c r="I23" t="s">
-        <v>170</v>
-      </c>
-      <c r="J23">
-        <v>718506000</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>718506000</v>
-      </c>
-      <c r="M23">
-        <v>971314000</v>
-      </c>
-      <c r="N23">
-        <v>598935000</v>
-      </c>
-      <c r="O23">
-        <v>303489000</v>
-      </c>
-      <c r="P23">
-        <v>2592244000</v>
-      </c>
-      <c r="Q23">
-        <v>24210721000</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>172279000</v>
-      </c>
-      <c r="X23">
-        <v>24383000000</v>
-      </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-      <c r="Z23">
-        <v>26975244000</v>
-      </c>
-      <c r="AA23">
-        <v>1471953000</v>
-      </c>
-      <c r="AB23">
-        <v>6579000</v>
-      </c>
-      <c r="AC23">
-        <v>93618000</v>
-      </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
-        <v>247137000</v>
-      </c>
-      <c r="AF23">
-        <v>1819287000</v>
-      </c>
-      <c r="AG23">
-        <v>6653685000</v>
-      </c>
-      <c r="AH23">
-        <v>0</v>
-      </c>
-      <c r="AI23">
-        <v>4587902000</v>
-      </c>
-      <c r="AJ23">
-        <v>971335000</v>
-      </c>
-      <c r="AK23">
-        <v>12212922000</v>
-      </c>
-      <c r="AL23">
-        <v>0</v>
-      </c>
-      <c r="AM23">
-        <v>0</v>
-      </c>
-      <c r="AN23">
-        <v>14032209000</v>
-      </c>
-      <c r="AO23">
-        <v>0</v>
-      </c>
-      <c r="AP23">
-        <v>205502000</v>
-      </c>
-      <c r="AQ23">
-        <v>9870816000</v>
-      </c>
-      <c r="AR23">
-        <v>-33338000</v>
-      </c>
-      <c r="AS23">
-        <v>2900055000</v>
-      </c>
-      <c r="AT23">
-        <v>12943035000</v>
-      </c>
-      <c r="AU23">
-        <v>12943035000</v>
-      </c>
-      <c r="AV23">
-        <v>26975244000</v>
-      </c>
-      <c r="AW23">
-        <v>0</v>
-      </c>
-      <c r="AX23">
-        <v>26975244000</v>
-      </c>
-      <c r="AY23">
-        <v>0</v>
-      </c>
-      <c r="AZ23">
-        <v>6660264000</v>
-      </c>
-      <c r="BA23">
-        <v>5941758000</v>
-      </c>
-      <c r="BB23" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="BC23" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="24" spans="1:55">
-      <c r="A24" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="2">
-        <v>42735</v>
-      </c>
-      <c r="C24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" t="s">
-        <v>108</v>
-      </c>
-      <c r="G24" t="s">
-        <v>136</v>
-      </c>
-      <c r="H24" t="s">
-        <v>164</v>
-      </c>
-      <c r="I24" t="s">
-        <v>170</v>
-      </c>
-      <c r="J24">
-        <v>1599895000</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>1599895000</v>
-      </c>
-      <c r="M24">
-        <v>1228625000</v>
-      </c>
-      <c r="N24">
-        <v>350017000</v>
-      </c>
-      <c r="O24">
-        <v>376066000</v>
-      </c>
-      <c r="P24">
-        <v>3554603000</v>
-      </c>
-      <c r="Q24">
-        <v>25707078000</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>197752000</v>
-      </c>
-      <c r="X24">
-        <v>25904830000</v>
-      </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-      <c r="Z24">
-        <v>29459433000</v>
-      </c>
-      <c r="AA24">
-        <v>1511826000</v>
-      </c>
-      <c r="AB24">
-        <v>6579000</v>
-      </c>
-      <c r="AC24">
-        <v>118411000</v>
-      </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
-      <c r="AE24">
-        <v>390475000</v>
-      </c>
-      <c r="AF24">
-        <v>2027291000</v>
-      </c>
-      <c r="AG24">
-        <v>6979779000</v>
-      </c>
-      <c r="AH24">
-        <v>0</v>
-      </c>
-      <c r="AI24">
-        <v>5188640000</v>
-      </c>
-      <c r="AJ24">
-        <v>1282142000</v>
-      </c>
-      <c r="AK24">
-        <v>13450561000</v>
-      </c>
-      <c r="AL24">
-        <v>0</v>
-      </c>
-      <c r="AM24">
-        <v>0</v>
-      </c>
-      <c r="AN24">
-        <v>15477852000</v>
-      </c>
-      <c r="AO24">
-        <v>0</v>
-      </c>
-      <c r="AP24">
-        <v>205770000</v>
-      </c>
-      <c r="AQ24">
-        <v>8398118000</v>
-      </c>
-      <c r="AR24">
-        <v>-19010000</v>
-      </c>
-      <c r="AS24">
-        <v>5396703000</v>
-      </c>
-      <c r="AT24">
-        <v>13981581000</v>
-      </c>
-      <c r="AU24">
-        <v>13981581000</v>
-      </c>
-      <c r="AV24">
-        <v>29459433000</v>
-      </c>
-      <c r="AW24">
-        <v>0</v>
-      </c>
-      <c r="AX24">
-        <v>29459433000</v>
-      </c>
-      <c r="AY24">
-        <v>0</v>
-      </c>
-      <c r="AZ24">
-        <v>6986358000</v>
-      </c>
-      <c r="BA24">
-        <v>5386463000</v>
-      </c>
-      <c r="BB24" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="BC24" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="25" spans="1:55">
-      <c r="A25" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="2">
-        <v>43100</v>
-      </c>
-      <c r="C25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" t="s">
-        <v>85</v>
-      </c>
-      <c r="F25" t="s">
-        <v>109</v>
-      </c>
-      <c r="G25" t="s">
-        <v>137</v>
-      </c>
-      <c r="H25" t="s">
-        <v>165</v>
-      </c>
-      <c r="I25" t="s">
-        <v>170</v>
-      </c>
-      <c r="J25">
-        <v>834228000</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>834228000</v>
-      </c>
-      <c r="M25">
-        <v>1710851000</v>
-      </c>
-      <c r="N25">
-        <v>483865000</v>
-      </c>
-      <c r="O25">
-        <v>250164000</v>
-      </c>
-      <c r="P25">
-        <v>3279108000</v>
-      </c>
-      <c r="Q25">
-        <v>25665037000</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>17506000</v>
-      </c>
-      <c r="W25">
-        <v>871427000</v>
-      </c>
-      <c r="X25">
-        <v>26553970000</v>
-      </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>29833078000</v>
-      </c>
-      <c r="AA25">
-        <v>1847131000</v>
-      </c>
-      <c r="AB25">
-        <v>356235000</v>
-      </c>
-      <c r="AC25">
-        <v>148874000</v>
-      </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
-      <c r="AE25">
-        <v>373302000</v>
-      </c>
-      <c r="AF25">
-        <v>2725542000</v>
-      </c>
-      <c r="AG25">
-        <v>6030836000</v>
-      </c>
-      <c r="AH25">
-        <v>0</v>
-      </c>
-      <c r="AI25">
-        <v>3518214000</v>
-      </c>
-      <c r="AJ25">
-        <v>1275213000</v>
-      </c>
-      <c r="AK25">
-        <v>10824263000</v>
-      </c>
-      <c r="AL25">
-        <v>0</v>
-      </c>
-      <c r="AM25">
-        <v>0</v>
-      </c>
-      <c r="AN25">
-        <v>13549805000</v>
-      </c>
-      <c r="AO25">
-        <v>0</v>
-      </c>
-      <c r="AP25">
-        <v>205788000</v>
-      </c>
-      <c r="AQ25">
-        <v>10593533000</v>
-      </c>
-      <c r="AR25">
-        <v>-19297000</v>
-      </c>
-      <c r="AS25">
-        <v>5503249000</v>
-      </c>
-      <c r="AT25">
-        <v>16283273000</v>
-      </c>
-      <c r="AU25">
-        <v>16283273000</v>
-      </c>
-      <c r="AV25">
-        <v>29833078000</v>
-      </c>
-      <c r="AW25">
-        <v>0</v>
-      </c>
-      <c r="AX25">
-        <v>29833078000</v>
-      </c>
-      <c r="AY25">
-        <v>0</v>
-      </c>
-      <c r="AZ25">
-        <v>6387071000</v>
-      </c>
-      <c r="BA25">
-        <v>5552843000</v>
-      </c>
-      <c r="BB25" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="BC25" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="26" spans="1:55">
-      <c r="A26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="2">
-        <v>43465</v>
-      </c>
-      <c r="C26" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" t="s">
-        <v>85</v>
-      </c>
-      <c r="F26" t="s">
-        <v>110</v>
-      </c>
-      <c r="G26" t="s">
-        <v>138</v>
-      </c>
-      <c r="H26" t="s">
-        <v>166</v>
-      </c>
-      <c r="I26" t="s">
-        <v>170</v>
-      </c>
-      <c r="J26">
-        <v>1555634000</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>1555634000</v>
-      </c>
-      <c r="M26">
-        <v>2343124000</v>
-      </c>
-      <c r="N26">
-        <v>859359000</v>
-      </c>
-      <c r="O26">
-        <v>299273000</v>
-      </c>
-      <c r="P26">
-        <v>5057390000</v>
-      </c>
-      <c r="Q26">
-        <v>28075519000</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>777000</v>
-      </c>
-      <c r="W26">
-        <v>800788000</v>
-      </c>
-      <c r="X26">
-        <v>28877084000</v>
-      </c>
-      <c r="Y26">
-        <v>0</v>
-      </c>
-      <c r="Z26">
-        <v>33934474000</v>
-      </c>
-      <c r="AA26">
-        <v>2239850000</v>
-      </c>
-      <c r="AB26">
-        <v>913093000</v>
-      </c>
-      <c r="AC26">
-        <v>214726000</v>
-      </c>
-      <c r="AD26">
-        <v>0</v>
-      </c>
-      <c r="AE26">
-        <v>360695000</v>
-      </c>
-      <c r="AF26">
-        <v>3728364000</v>
-      </c>
-      <c r="AG26">
-        <v>5170169000</v>
-      </c>
-      <c r="AH26">
-        <v>0</v>
-      </c>
-      <c r="AI26">
-        <v>4413398000</v>
-      </c>
-      <c r="AJ26">
-        <v>1258355000</v>
-      </c>
-      <c r="AK26">
-        <v>10841922000</v>
-      </c>
-      <c r="AL26">
-        <v>0</v>
-      </c>
-      <c r="AM26">
-        <v>0</v>
-      </c>
-      <c r="AN26">
-        <v>14570286000</v>
-      </c>
-      <c r="AO26">
-        <v>0</v>
-      </c>
-      <c r="AP26">
-        <v>205804000</v>
-      </c>
-      <c r="AQ26">
-        <v>13543130000</v>
-      </c>
-      <c r="AR26">
-        <v>-1358000</v>
-      </c>
-      <c r="AS26">
-        <v>5616612000</v>
-      </c>
-      <c r="AT26">
-        <v>19364188000</v>
-      </c>
-      <c r="AU26">
-        <v>19364188000</v>
-      </c>
-      <c r="AV26">
-        <v>33934474000</v>
-      </c>
-      <c r="AW26">
-        <v>0</v>
-      </c>
-      <c r="AX26">
-        <v>33934474000</v>
-      </c>
-      <c r="AY26">
-        <v>0</v>
-      </c>
-      <c r="AZ26">
-        <v>6083262000</v>
-      </c>
-      <c r="BA26">
-        <v>4527628000</v>
-      </c>
-      <c r="BB26" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="BC26" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="27" spans="1:55">
-      <c r="A27" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="2">
-        <v>43830</v>
-      </c>
-      <c r="C27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" t="s">
-        <v>84</v>
-      </c>
-      <c r="E27" t="s">
-        <v>85</v>
-      </c>
-      <c r="F27" t="s">
-        <v>111</v>
-      </c>
-      <c r="G27" t="s">
-        <v>139</v>
-      </c>
-      <c r="H27" t="s">
-        <v>167</v>
-      </c>
-      <c r="I27" t="s">
-        <v>170</v>
-      </c>
-      <c r="J27">
-        <v>2027972000</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>2027972000</v>
-      </c>
-      <c r="M27">
-        <v>2153323000</v>
-      </c>
-      <c r="N27">
-        <v>767297000</v>
-      </c>
-      <c r="O27">
-        <v>324747000</v>
-      </c>
-      <c r="P27">
-        <v>5273339000</v>
-      </c>
-      <c r="Q27">
-        <v>30364595000</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>2363000</v>
-      </c>
-      <c r="W27">
-        <v>1484311000</v>
-      </c>
-      <c r="X27">
-        <v>31851269000</v>
-      </c>
-      <c r="Y27">
-        <v>0</v>
-      </c>
-      <c r="Z27">
-        <v>37124608000</v>
-      </c>
-      <c r="AA27">
-        <v>2429127000</v>
-      </c>
-      <c r="AB27">
-        <v>1383889000</v>
-      </c>
-      <c r="AC27">
-        <v>254850000</v>
-      </c>
-      <c r="AD27">
-        <v>0</v>
-      </c>
-      <c r="AE27">
-        <v>419122000</v>
-      </c>
-      <c r="AF27">
-        <v>4486988000</v>
-      </c>
-      <c r="AG27">
-        <v>4160919000</v>
-      </c>
-      <c r="AH27">
-        <v>0</v>
-      </c>
-      <c r="AI27">
-        <v>5046101000</v>
-      </c>
-      <c r="AJ27">
-        <v>1789884000</v>
-      </c>
-      <c r="AK27">
-        <v>10996904000</v>
-      </c>
-      <c r="AL27">
-        <v>0</v>
-      </c>
-      <c r="AM27">
-        <v>369365000</v>
-      </c>
-      <c r="AN27">
-        <v>15483892000</v>
-      </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
-      <c r="AP27">
-        <v>205822000</v>
-      </c>
-      <c r="AQ27">
-        <v>15648604000</v>
-      </c>
-      <c r="AR27">
-        <v>-4652000</v>
-      </c>
-      <c r="AS27">
-        <v>5790942000</v>
-      </c>
-      <c r="AT27">
-        <v>21640716000</v>
-      </c>
-      <c r="AU27">
-        <v>21640716000</v>
-      </c>
-      <c r="AV27">
-        <v>37124608000</v>
-      </c>
-      <c r="AW27">
-        <v>0</v>
-      </c>
-      <c r="AX27">
-        <v>37124608000</v>
-      </c>
-      <c r="AY27">
-        <v>0</v>
-      </c>
-      <c r="AZ27">
-        <v>5544808000</v>
-      </c>
-      <c r="BA27">
-        <v>3516836000</v>
-      </c>
-      <c r="BB27" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="BC27" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="28" spans="1:55">
-      <c r="A28" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="2">
-        <v>44196</v>
-      </c>
-      <c r="C28" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28" t="s">
-        <v>85</v>
-      </c>
-      <c r="F28" t="s">
-        <v>112</v>
-      </c>
-      <c r="G28" t="s">
-        <v>140</v>
-      </c>
-      <c r="H28" t="s">
-        <v>168</v>
-      </c>
-      <c r="I28" t="s">
-        <v>170</v>
-      </c>
-      <c r="J28">
-        <v>3328928000</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>3328928000</v>
-      </c>
-      <c r="M28">
-        <v>1545293000</v>
-      </c>
-      <c r="N28">
-        <v>629401000</v>
-      </c>
-      <c r="O28">
-        <v>358546000</v>
-      </c>
-      <c r="P28">
-        <v>5862168000</v>
-      </c>
-      <c r="Q28">
-        <v>28598627000</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>2127000</v>
-      </c>
-      <c r="W28">
-        <v>1341679000</v>
-      </c>
-      <c r="X28">
-        <v>29942433000</v>
-      </c>
-      <c r="Y28">
-        <v>0</v>
-      </c>
-      <c r="Z28">
-        <v>35804601000</v>
-      </c>
-      <c r="AA28">
-        <v>1681193000</v>
-      </c>
-      <c r="AB28">
-        <v>1076143000</v>
-      </c>
-      <c r="AC28">
-        <v>205754000</v>
-      </c>
-      <c r="AD28">
-        <v>0</v>
-      </c>
-      <c r="AE28">
-        <v>497014000</v>
-      </c>
-      <c r="AF28">
-        <v>3460104000</v>
-      </c>
-      <c r="AG28">
-        <v>5035351000</v>
-      </c>
-      <c r="AH28">
-        <v>0</v>
-      </c>
-      <c r="AI28">
-        <v>4859327000</v>
-      </c>
-      <c r="AJ28">
-        <v>2147932000</v>
-      </c>
-      <c r="AK28">
-        <v>12042610000</v>
-      </c>
-      <c r="AL28">
-        <v>0</v>
-      </c>
-      <c r="AM28">
-        <v>295089000</v>
-      </c>
-      <c r="AN28">
-        <v>15502714000</v>
-      </c>
-      <c r="AO28">
-        <v>0</v>
-      </c>
-      <c r="AP28">
-        <v>205837000</v>
-      </c>
-      <c r="AQ28">
-        <v>14169969000</v>
-      </c>
-      <c r="AR28">
-        <v>-12328000</v>
-      </c>
-      <c r="AS28">
-        <v>5938409000</v>
-      </c>
-      <c r="AT28">
-        <v>20301887000</v>
-      </c>
-      <c r="AU28">
-        <v>20301887000</v>
-      </c>
-      <c r="AV28">
-        <v>35804601000</v>
-      </c>
-      <c r="AW28">
-        <v>0</v>
-      </c>
-      <c r="AX28">
-        <v>35804601000</v>
-      </c>
-      <c r="AY28">
-        <v>0</v>
-      </c>
-      <c r="AZ28">
-        <v>6111494000</v>
-      </c>
-      <c r="BA28">
-        <v>2782566000</v>
-      </c>
-      <c r="BB28" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="BC28" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="29" spans="1:55">
-      <c r="A29" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B29" s="2">
-        <v>44561</v>
-      </c>
-      <c r="C29" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" t="s">
-        <v>85</v>
-      </c>
-      <c r="F29" t="s">
-        <v>113</v>
-      </c>
-      <c r="G29" t="s">
-        <v>141</v>
-      </c>
-      <c r="H29" t="s">
-        <v>169</v>
-      </c>
-      <c r="I29" t="s">
-        <v>170</v>
-      </c>
-      <c r="J29">
-        <v>5209000000</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>5209000000</v>
-      </c>
-      <c r="M29">
-        <v>2335000000</v>
-      </c>
-      <c r="N29">
-        <v>584000000</v>
-      </c>
-      <c r="O29">
-        <v>456000000</v>
-      </c>
-      <c r="P29">
-        <v>8584000000</v>
-      </c>
-      <c r="Q29">
-        <v>28426000000</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>11000000</v>
-      </c>
-      <c r="W29">
-        <v>1215000000</v>
-      </c>
-      <c r="X29">
-        <v>29652000000</v>
-      </c>
-      <c r="Y29">
-        <v>0</v>
-      </c>
-      <c r="Z29">
-        <v>38236000000</v>
-      </c>
-      <c r="AA29">
-        <v>2242000000</v>
-      </c>
-      <c r="AB29">
-        <v>277000000</v>
-      </c>
-      <c r="AC29">
-        <v>518000000</v>
-      </c>
-      <c r="AD29">
-        <v>0</v>
-      </c>
-      <c r="AE29">
-        <v>1005000000</v>
-      </c>
-      <c r="AF29">
-        <v>4042000000</v>
-      </c>
-      <c r="AG29">
-        <v>5630000000</v>
-      </c>
-      <c r="AH29">
-        <v>0</v>
-      </c>
-      <c r="AI29">
-        <v>4749000000</v>
-      </c>
-      <c r="AJ29">
-        <v>1635000000</v>
-      </c>
-      <c r="AK29">
-        <v>12014000000</v>
-      </c>
-      <c r="AL29">
-        <v>0</v>
-      </c>
-      <c r="AM29">
-        <v>1048000000</v>
-      </c>
-      <c r="AN29">
-        <v>16056000000</v>
-      </c>
-      <c r="AO29">
-        <v>0</v>
-      </c>
-      <c r="AP29">
-        <v>206000000</v>
-      </c>
-      <c r="AQ29">
-        <v>15919000000</v>
-      </c>
-      <c r="AR29">
-        <v>-12000000</v>
-      </c>
-      <c r="AS29">
-        <v>0</v>
-      </c>
-      <c r="AT29">
-        <v>22180000000</v>
-      </c>
-      <c r="AU29">
-        <v>22180000000</v>
-      </c>
-      <c r="AV29">
-        <v>38236000000</v>
-      </c>
-      <c r="AW29">
-        <v>0</v>
-      </c>
-      <c r="AX29">
-        <v>38236000000</v>
-      </c>
-      <c r="AY29">
-        <v>0</v>
-      </c>
-      <c r="AZ29">
-        <v>5907000000</v>
-      </c>
-      <c r="BA29">
-        <v>698000000</v>
-      </c>
-      <c r="BB29" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="BC29" s="3" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="BB7" r:id="rId1"/>
-    <hyperlink ref="BC7" r:id="rId2"/>
-    <hyperlink ref="BB8" r:id="rId3"/>
-    <hyperlink ref="BC8" r:id="rId4"/>
-    <hyperlink ref="BB11" r:id="rId5"/>
-    <hyperlink ref="BC11" r:id="rId6"/>
-    <hyperlink ref="BB12" r:id="rId7"/>
-    <hyperlink ref="BC12" r:id="rId8"/>
-    <hyperlink ref="BB13" r:id="rId9"/>
-    <hyperlink ref="BC13" r:id="rId10"/>
-    <hyperlink ref="BB14" r:id="rId11"/>
-    <hyperlink ref="BC14" r:id="rId12"/>
-    <hyperlink ref="BB15" r:id="rId13"/>
-    <hyperlink ref="BC15" r:id="rId14"/>
-    <hyperlink ref="BB16" r:id="rId15"/>
-    <hyperlink ref="BC16" r:id="rId16"/>
-    <hyperlink ref="BB17" r:id="rId17"/>
-    <hyperlink ref="BC17" r:id="rId18"/>
-    <hyperlink ref="BB18" r:id="rId19"/>
-    <hyperlink ref="BC18" r:id="rId20"/>
-    <hyperlink ref="BB19" r:id="rId21"/>
-    <hyperlink ref="BC19" r:id="rId22"/>
-    <hyperlink ref="BB20" r:id="rId23"/>
-    <hyperlink ref="BC20" r:id="rId24"/>
-    <hyperlink ref="BB21" r:id="rId25"/>
-    <hyperlink ref="BC21" r:id="rId26"/>
-    <hyperlink ref="BB22" r:id="rId27"/>
-    <hyperlink ref="BC22" r:id="rId28"/>
-    <hyperlink ref="BB23" r:id="rId29"/>
-    <hyperlink ref="BC23" r:id="rId30"/>
-    <hyperlink ref="BB24" r:id="rId31"/>
-    <hyperlink ref="BC24" r:id="rId32"/>
-    <hyperlink ref="BB25" r:id="rId33"/>
-    <hyperlink ref="BC25" r:id="rId34"/>
-    <hyperlink ref="BB26" r:id="rId35"/>
-    <hyperlink ref="BC26" r:id="rId36"/>
-    <hyperlink ref="BB27" r:id="rId37"/>
-    <hyperlink ref="BC27" r:id="rId38"/>
-    <hyperlink ref="BB28" r:id="rId39"/>
-    <hyperlink ref="BC28" r:id="rId40"/>
-    <hyperlink ref="BB29" r:id="rId41"/>
-    <hyperlink ref="BC29" r:id="rId42"/>
+    <hyperlink ref="BB3" r:id="rId1"/>
+    <hyperlink ref="BC3" r:id="rId2"/>
+    <hyperlink ref="BB4" r:id="rId3"/>
+    <hyperlink ref="BC4" r:id="rId4"/>
+    <hyperlink ref="BB5" r:id="rId5"/>
+    <hyperlink ref="BC5" r:id="rId6"/>
+    <hyperlink ref="BB6" r:id="rId7"/>
+    <hyperlink ref="BC6" r:id="rId8"/>
+    <hyperlink ref="BB7" r:id="rId9"/>
+    <hyperlink ref="BC7" r:id="rId10"/>
+    <hyperlink ref="BB8" r:id="rId11"/>
+    <hyperlink ref="BC8" r:id="rId12"/>
+    <hyperlink ref="BB9" r:id="rId13"/>
+    <hyperlink ref="BC9" r:id="rId14"/>
+    <hyperlink ref="BB10" r:id="rId15"/>
+    <hyperlink ref="BC10" r:id="rId16"/>
+    <hyperlink ref="BB11" r:id="rId17"/>
+    <hyperlink ref="BC11" r:id="rId18"/>
+    <hyperlink ref="BB12" r:id="rId19"/>
+    <hyperlink ref="BC12" r:id="rId20"/>
+    <hyperlink ref="BB13" r:id="rId21"/>
+    <hyperlink ref="BC13" r:id="rId22"/>
+    <hyperlink ref="BB14" r:id="rId23"/>
+    <hyperlink ref="BC14" r:id="rId24"/>
+    <hyperlink ref="BB15" r:id="rId25"/>
+    <hyperlink ref="BC15" r:id="rId26"/>
+    <hyperlink ref="BB16" r:id="rId27"/>
+    <hyperlink ref="BC16" r:id="rId28"/>
+    <hyperlink ref="BB17" r:id="rId29"/>
+    <hyperlink ref="BC17" r:id="rId30"/>
+    <hyperlink ref="BB18" r:id="rId31"/>
+    <hyperlink ref="BC18" r:id="rId32"/>
+    <hyperlink ref="BB19" r:id="rId33"/>
+    <hyperlink ref="BC19" r:id="rId34"/>
+    <hyperlink ref="BB20" r:id="rId35"/>
+    <hyperlink ref="BC20" r:id="rId36"/>
+    <hyperlink ref="BB21" r:id="rId37"/>
+    <hyperlink ref="BC21" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
